--- a/baixar_imagens/Links.xlsx
+++ b/baixar_imagens/Links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joab.alves\Desktop\automacoes_atacadao\baixar_imagens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342266D1-BF31-4F1E-B06F-B1028A2F208F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF48B2E-4FCE-4FD1-BA9C-C7C9045AE36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E502FECC-261D-47F0-98EA-7DD680AD7C21}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>link</t>
   </si>
@@ -44,70 +44,31 @@
     <t>nome</t>
   </si>
   <si>
-    <t>VMM70074</t>
-  </si>
-  <si>
-    <t>https://vmvalman.com.br/wp-content/uploads/2019/09/70074.png</t>
-  </si>
-  <si>
-    <t>VMW30102</t>
-  </si>
-  <si>
-    <t>https://vmvalman.com.br/wp-content/uploads/2019/09/30102.png</t>
-  </si>
-  <si>
-    <t>VMW30109</t>
-  </si>
-  <si>
-    <t>https://vmvalman.com.br/wp-content/uploads/2019/09/30109.png</t>
-  </si>
-  <si>
-    <t>VMW30108</t>
-  </si>
-  <si>
-    <t>https://vmvalman.com.br/wp-content/uploads/2019/09/30108.png</t>
-  </si>
-  <si>
-    <t>VMM71002</t>
-  </si>
-  <si>
-    <t>https://vmvalman.com.br/wp-content/uploads/2019/09/71002.png</t>
-  </si>
-  <si>
-    <t>VMM70091</t>
-  </si>
-  <si>
-    <t>https://vmvalman.com.br/wp-content/uploads/2019/09/70091.png</t>
-  </si>
-  <si>
-    <t>VMM70088</t>
-  </si>
-  <si>
-    <t>https://vmvalman.com.br/wp-content/uploads/2019/09/70088.png</t>
-  </si>
-  <si>
-    <t>VMF50081</t>
-  </si>
-  <si>
-    <t>https://vmvalman.com.br/wp-content/uploads/2019/09/50081.png</t>
-  </si>
-  <si>
-    <t>VMV40087</t>
-  </si>
-  <si>
-    <t>https://vmvalman.com.br/wp-content/uploads/2019/09/40087.png</t>
-  </si>
-  <si>
-    <t>VMM70077</t>
-  </si>
-  <si>
-    <t>https://vmvalman.com.br/wp-content/uploads/2019/09/70077.png</t>
-  </si>
-  <si>
-    <t>VMV40085</t>
-  </si>
-  <si>
-    <t>https://vmvalman.com.br/wp-content/uploads/2019/09/40085.png</t>
+    <t>https://c123.com.br/bel-ar/FotoRetArq.asp?a=101051000%2Ejpg</t>
+  </si>
+  <si>
+    <t>https://c123.com.br/bel-ar/FotoRetArq.asp?a=101021640%2Ejpg</t>
+  </si>
+  <si>
+    <t>https://c123.com.br/bel-ar/FotoRetArq.asp?a=101041217%2Ejpg</t>
+  </si>
+  <si>
+    <t>https://c123.com.br/bel-ar/FotoRetArq.asp?a=101042728%2Ejpg</t>
+  </si>
+  <si>
+    <t>https://c123.com.br/bel-ar/FotoRetArq.asp?a=101021569%2Ejpg</t>
+  </si>
+  <si>
+    <t>https://c123.com.br/bel-ar/FotoRetArq.asp?a=101021836%2Ejpg</t>
+  </si>
+  <si>
+    <t>https://c123.com.br/bel-ar/FotoRetArq.asp?a=101043090%2Ejpg</t>
+  </si>
+  <si>
+    <t>https://c123.com.br/bel-ar/FotoRetArq.asp?a=101021526%2Ejpg</t>
+  </si>
+  <si>
+    <t>https://c123.com.br/bel-ar/FotoRetArq.asp?a=101023715%2Ejpg</t>
   </si>
 </sst>
 </file>
@@ -485,7 +446,7 @@
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,91 +465,81 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>101051000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>101021640</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>101041217</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>101042728</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>101021569</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>101021836</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>101043090</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>101021526</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>101023715</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A11"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="A12"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13"/>

--- a/baixar_imagens/Links.xlsx
+++ b/baixar_imagens/Links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joab.alves\Desktop\automacoes_atacadao\baixar_imagens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF48B2E-4FCE-4FD1-BA9C-C7C9045AE36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536E5D06-B140-4E88-B6EC-B6CA0843CD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E502FECC-261D-47F0-98EA-7DD680AD7C21}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>link</t>
   </si>
@@ -44,31 +44,31 @@
     <t>nome</t>
   </si>
   <si>
-    <t>https://c123.com.br/bel-ar/FotoRetArq.asp?a=101051000%2Ejpg</t>
-  </si>
-  <si>
-    <t>https://c123.com.br/bel-ar/FotoRetArq.asp?a=101021640%2Ejpg</t>
-  </si>
-  <si>
-    <t>https://c123.com.br/bel-ar/FotoRetArq.asp?a=101041217%2Ejpg</t>
-  </si>
-  <si>
-    <t>https://c123.com.br/bel-ar/FotoRetArq.asp?a=101042728%2Ejpg</t>
-  </si>
-  <si>
-    <t>https://c123.com.br/bel-ar/FotoRetArq.asp?a=101021569%2Ejpg</t>
-  </si>
-  <si>
-    <t>https://c123.com.br/bel-ar/FotoRetArq.asp?a=101021836%2Ejpg</t>
-  </si>
-  <si>
-    <t>https://c123.com.br/bel-ar/FotoRetArq.asp?a=101043090%2Ejpg</t>
-  </si>
-  <si>
-    <t>https://c123.com.br/bel-ar/FotoRetArq.asp?a=101021526%2Ejpg</t>
-  </si>
-  <si>
-    <t>https://c123.com.br/bel-ar/FotoRetArq.asp?a=101023715%2Ejpg</t>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=226&amp;n=21989</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=226&amp;n=50261</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=226&amp;n=650158</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=226&amp;n=50193</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=226&amp;n=50282</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=226&amp;n=60124</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=226&amp;n=21503</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=226&amp;n=50127</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=226&amp;n=50195</t>
   </si>
 </sst>
 </file>
@@ -443,11 +443,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B3B02E-6FEB-4E48-A123-FFA1FD149E5A}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -455,7 +453,7 @@
     <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,94 +461,121 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>101051000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21989</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>101021640</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50261</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>101041217</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>650158</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>101042728</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50193</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>101021569</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50282</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>101021836</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>60124</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>101043090</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21503</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>101021526</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50127</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>101023715</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50195</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
@@ -609,5 +634,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/baixar_imagens/Links.xlsx
+++ b/baixar_imagens/Links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joab.alves\Desktop\automacoes_atacadao\baixar_imagens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536E5D06-B140-4E88-B6EC-B6CA0843CD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BA7093-849C-40EA-9E36-FF96513E640F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E502FECC-261D-47F0-98EA-7DD680AD7C21}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="241">
   <si>
     <t>link</t>
   </si>
@@ -44,31 +44,721 @@
     <t>nome</t>
   </si>
   <si>
-    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=226&amp;n=21989</t>
-  </si>
-  <si>
-    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=226&amp;n=50261</t>
-  </si>
-  <si>
-    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=226&amp;n=650158</t>
-  </si>
-  <si>
-    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=226&amp;n=50193</t>
-  </si>
-  <si>
-    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=226&amp;n=50282</t>
-  </si>
-  <si>
-    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=226&amp;n=60124</t>
-  </si>
-  <si>
-    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=226&amp;n=21503</t>
-  </si>
-  <si>
-    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=226&amp;n=50127</t>
-  </si>
-  <si>
-    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=226&amp;n=50195</t>
+    <t>181723BN</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=76&amp;n=181723BN</t>
+  </si>
+  <si>
+    <t>181711BN</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=76&amp;n=181711BN</t>
+  </si>
+  <si>
+    <t>161722PK</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=76&amp;n=161722PK</t>
+  </si>
+  <si>
+    <t>161710PK</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=76&amp;n=161710PK</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=76&amp;n=1733083</t>
+  </si>
+  <si>
+    <t>161944NA</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=76&amp;n=161944NA</t>
+  </si>
+  <si>
+    <t>151558PK</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=76&amp;n=151558PK</t>
+  </si>
+  <si>
+    <t>171522PK</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=76&amp;n=171522PK</t>
+  </si>
+  <si>
+    <t>161506PK</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=76&amp;n=161506PK</t>
+  </si>
+  <si>
+    <t>171530PK</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=76&amp;n=171530PK</t>
+  </si>
+  <si>
+    <t>171529PK</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=76&amp;n=171529PK</t>
+  </si>
+  <si>
+    <t>171506MP</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=76&amp;n=171506MP</t>
+  </si>
+  <si>
+    <t>19151004PK</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=76&amp;n=19151004PK</t>
+  </si>
+  <si>
+    <t>161520PK</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=76&amp;n=161520PK</t>
+  </si>
+  <si>
+    <t>171508PK</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=76&amp;n=171508PK</t>
+  </si>
+  <si>
+    <t>19151007PK</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=76&amp;n=19151007PK</t>
+  </si>
+  <si>
+    <t>181509PK3</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=76&amp;n=181509PK3</t>
+  </si>
+  <si>
+    <t>181507PK3</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=76&amp;n=181507PK3</t>
+  </si>
+  <si>
+    <t>181523PK3</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=76&amp;n=181523PK3</t>
+  </si>
+  <si>
+    <t>161522PK</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=76&amp;n=161522PK</t>
+  </si>
+  <si>
+    <t>151509PK30</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=76&amp;n=151509PK30</t>
+  </si>
+  <si>
+    <t>15154001ML3</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=76&amp;n=15154001ML3</t>
+  </si>
+  <si>
+    <t>161524ML</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=76&amp;n=161524ML</t>
+  </si>
+  <si>
+    <t>161545ML</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=76&amp;n=161545ML</t>
+  </si>
+  <si>
+    <t>161531ML</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=76&amp;n=161531ML</t>
+  </si>
+  <si>
+    <t>161544ML</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=76&amp;n=161544ML</t>
+  </si>
+  <si>
+    <t>161541ML</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=76&amp;n=161541ML</t>
+  </si>
+  <si>
+    <t>19151206ML</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=76&amp;n=19151206ML</t>
+  </si>
+  <si>
+    <t>161540ML</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=76&amp;n=161540ML</t>
+  </si>
+  <si>
+    <t>19151020ML</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=76&amp;n=19151020ML</t>
+  </si>
+  <si>
+    <t>15154001ML1</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=76&amp;n=15154001ML1</t>
+  </si>
+  <si>
+    <t>151509ML1</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=76&amp;n=151509ML1</t>
+  </si>
+  <si>
+    <t>181530ML3</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=76&amp;n=181530ML3</t>
+  </si>
+  <si>
+    <t>181529ML</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=76&amp;n=181529ML</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=76&amp;n=193711011</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=286&amp;n=4350045</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=286&amp;n=6350066</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=286&amp;n=14330104</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=286&amp;n=14330290</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=286&amp;n=14330100</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=286&amp;n=14330291</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=286&amp;n=14330053</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=286&amp;n=14330287</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=286&amp;n=14330435</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=286&amp;n=14330329</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=286&amp;n=14330301</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=286&amp;n=14330432</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=286&amp;n=10330326</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=286&amp;n=10330762</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=286&amp;n=10330445</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=286&amp;n=11330009</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=286&amp;n=10330622</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=286&amp;n=10330456</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=286&amp;n=11330037</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=286&amp;n=10330680</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=286&amp;n=10330761</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=286&amp;n=10330357</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=286&amp;n=10330662</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=286&amp;n=10330003</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=286&amp;n=10330532</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=286&amp;n=10350015</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=286&amp;n=10350596</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=286&amp;n=10330683</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=286&amp;n=10330372</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=286&amp;n=10330714</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=286&amp;n=10330414</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=286&amp;n=10330599</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=286&amp;n=10330205</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=394&amp;n=156352</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=394&amp;n=903180</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=394&amp;n=600862</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=394&amp;n=280623</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=394&amp;n=768820</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=394&amp;n=8891</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=394&amp;n=845470</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=394&amp;n=593380</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=394&amp;n=698630</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=394&amp;n=451611</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=394&amp;n=122581</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=394&amp;n=740331</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=394&amp;n=763012</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=394&amp;n=492905</t>
+  </si>
+  <si>
+    <t>181523ML3</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=394&amp;n=181523ML3</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=394&amp;n=490591</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=394&amp;n=373240</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=394&amp;n=402002</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=394&amp;n=38630</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=394&amp;n=401410</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=394&amp;n=152140</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=394&amp;n=470290</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=394&amp;n=489870</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=394&amp;n=8951</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=394&amp;n=277762</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=394&amp;n=186140</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=394&amp;n=475170</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=394&amp;n=412603</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=394&amp;n=381924</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=394&amp;n=36340</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=394&amp;n=215071</t>
+  </si>
+  <si>
+    <t>01405981-5</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=171&amp;n=01405981</t>
+  </si>
+  <si>
+    <t>01476216-5</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=171&amp;n=01476216</t>
+  </si>
+  <si>
+    <t>01846636-4</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=171&amp;n=01846636</t>
+  </si>
+  <si>
+    <t>01116461-5</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=171&amp;n=01116461</t>
+  </si>
+  <si>
+    <t>01919170-5</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=171&amp;n=01919170</t>
+  </si>
+  <si>
+    <t>01373174-5</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=171&amp;n=01373174</t>
+  </si>
+  <si>
+    <t>01476234-5</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=171&amp;n=01476234</t>
+  </si>
+  <si>
+    <t>00378633-5</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=171&amp;n=00378633</t>
+  </si>
+  <si>
+    <t>01476272-5</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=171&amp;n=01476272</t>
+  </si>
+  <si>
+    <t>01116475-4</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=171&amp;n=01116475</t>
+  </si>
+  <si>
+    <t>01116477-4</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=171&amp;n=01116477</t>
+  </si>
+  <si>
+    <t>01776318-4</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=171&amp;n=01776318</t>
+  </si>
+  <si>
+    <t>02008465-4</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=171&amp;n=02008465</t>
+  </si>
+  <si>
+    <t>01369558-4</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=171&amp;n=01369558</t>
+  </si>
+  <si>
+    <t>01369559-4</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=171&amp;n=01369559</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=176&amp;n=26022</t>
+  </si>
+  <si>
+    <t>MX8000</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=44&amp;n=MX8000</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=151&amp;n=91210</t>
+  </si>
+  <si>
+    <t>R11154</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=377&amp;n=11154</t>
+  </si>
+  <si>
+    <t>R11123</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=377&amp;n=11123</t>
+  </si>
+  <si>
+    <t>R04011</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=377&amp;n=04011</t>
+  </si>
+  <si>
+    <t>R04710</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=377&amp;n=04710</t>
+  </si>
+  <si>
+    <t>R04708</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=377&amp;n=04708</t>
+  </si>
+  <si>
+    <t>R04012</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=377&amp;n=04012</t>
+  </si>
+  <si>
+    <t>R04075</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=377&amp;n=04075</t>
+  </si>
+  <si>
+    <t>48953F</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=182&amp;n=48953F</t>
+  </si>
+  <si>
+    <t>48853EF</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=182&amp;n=48853EF</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=182&amp;n=96305</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=182&amp;n=82259</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=182&amp;n=82906</t>
+  </si>
+  <si>
+    <t>48802FPSD4</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=182&amp;n=48802FPSD4</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=182&amp;n=99924</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=255&amp;n=81600060</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=255&amp;n=81600200</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=255&amp;n=81600210</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=255&amp;n=81600240</t>
+  </si>
+  <si>
+    <t>48432SC</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=148&amp;n=48432SC</t>
+  </si>
+  <si>
+    <t>48853AN</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=148&amp;n=48853AN</t>
+  </si>
+  <si>
+    <t>48953AN</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=148&amp;n=48953AN</t>
+  </si>
+  <si>
+    <t>11930AN</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=148&amp;n=11930AN</t>
+  </si>
+  <si>
+    <t>70141AN</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=148&amp;n=70141AN</t>
+  </si>
+  <si>
+    <t>71627AN</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=148&amp;n=71627AN</t>
+  </si>
+  <si>
+    <t>71987NT</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=148&amp;n=71987NT</t>
+  </si>
+  <si>
+    <t>70328AN</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=148&amp;n=70328AN</t>
+  </si>
+  <si>
+    <t>71916AN</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=148&amp;n=71916AN</t>
+  </si>
+  <si>
+    <t>71917AN</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=148&amp;n=71917AN</t>
+  </si>
+  <si>
+    <t>60317BO</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=148&amp;n=60317BO</t>
+  </si>
+  <si>
+    <t>71860AN</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=148&amp;n=71860AN</t>
+  </si>
+  <si>
+    <t>48838AN</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=148&amp;n=48838AN</t>
+  </si>
+  <si>
+    <t>60280ML</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=148&amp;n=60280ML</t>
+  </si>
+  <si>
+    <t>70401SC</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=148&amp;n=70401SC</t>
+  </si>
+  <si>
+    <t>48303SC</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=148&amp;n=48303SC</t>
+  </si>
+  <si>
+    <t>60601SC</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=148&amp;n=60601SC</t>
+  </si>
+  <si>
+    <t>47003BI</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=148&amp;n=47003BI</t>
+  </si>
+  <si>
+    <t>47004BI</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=148&amp;n=47004BI</t>
+  </si>
+  <si>
+    <t>60422AN</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=148&amp;n=60422AN</t>
+  </si>
+  <si>
+    <t>60678SC</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=148&amp;n=60678SC</t>
+  </si>
+  <si>
+    <t>60680SC</t>
+  </si>
+  <si>
+    <t>https://www.ideia2001.com.br/catmobile/FotoMobRetArq.asp?cerq=148&amp;n=60680SC</t>
   </si>
 </sst>
 </file>
@@ -107,7 +797,7 @@
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -443,17 +1133,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B3B02E-6FEB-4E48-A123-FFA1FD149E5A}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:B158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="80.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,176 +1151,1261 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
-        <v>21989</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
-        <v>50261</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
-        <v>650158</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
-        <v>50193</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B6" s="1">
-        <v>50282</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1">
-        <v>60124</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1">
-        <v>21503</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1">
-        <v>50127</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1">
-        <v>50195</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34"/>
+        <v>1733083</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="1">
+        <v>193711011</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="1">
+        <v>4350045</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="1">
+        <v>6350066</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="1">
+        <v>14330104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="1">
+        <v>14330290</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="1">
+        <v>14330100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="1">
+        <v>14330291</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="1">
+        <v>14330053</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" s="1">
+        <v>14330287</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" s="1">
+        <v>14330435</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" s="1">
+        <v>14330329</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B47" s="1">
+        <v>14330301</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" s="1">
+        <v>14330432</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B49" s="1">
+        <v>10330326</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" s="1">
+        <v>10330762</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" s="1">
+        <v>10330445</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B52" s="1">
+        <v>11330009</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B53" s="1">
+        <v>10330622</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B54" s="1">
+        <v>10330456</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B55" s="1">
+        <v>11330037</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B56" s="1">
+        <v>10330680</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B57" s="1">
+        <v>10330761</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B58" s="1">
+        <v>10330357</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B59" s="1">
+        <v>10330662</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B60" s="1">
+        <v>10330003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B61" s="1">
+        <v>10330532</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B62" s="1">
+        <v>10350015</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B63" s="1">
+        <v>10350596</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B64" s="1">
+        <v>10330683</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B65" s="1">
+        <v>10330372</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B66" s="1">
+        <v>10330714</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B67" s="1">
+        <v>10330414</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B68" s="1">
+        <v>10330599</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B69" s="1">
+        <v>10330205</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B70" s="1">
+        <v>156352</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B71" s="1">
+        <v>903180</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B72" s="1">
+        <v>600862</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B73" s="1">
+        <v>280623</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B74" s="1">
+        <v>768820</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B75" s="1">
+        <v>8891</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B76" s="1">
+        <v>845470</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B77" s="1">
+        <v>593380</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B78" s="1">
+        <v>698630</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B79" s="1">
+        <v>451611</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B80" s="1">
+        <v>122581</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B81" s="1">
+        <v>740331</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B82" s="1">
+        <v>763012</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B83" s="1">
+        <v>492905</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B85" s="1">
+        <v>490591</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B86" s="1">
+        <v>373240</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B87" s="1">
+        <v>402002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B88" s="1">
+        <v>38630</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B89" s="1">
+        <v>401410</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B90" s="1">
+        <v>152140</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B91" s="1">
+        <v>470290</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B92" s="1">
+        <v>489870</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B93" s="1">
+        <v>8951</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B94" s="1">
+        <v>277762</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B95" s="1">
+        <v>186140</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B96" s="1">
+        <v>475170</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B97" s="1">
+        <v>412603</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B98" s="1">
+        <v>381924</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B99" s="1">
+        <v>36340</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B100" s="1">
+        <v>215071</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B116" s="1">
+        <v>26022</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B118" s="1">
+        <v>91210</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B128" s="1">
+        <v>96305</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B129" s="1">
+        <v>82259</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B130" s="1">
+        <v>82906</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B132" s="1">
+        <v>99924</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B133" s="1">
+        <v>81600060</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B134" s="1">
+        <v>81600200</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B135" s="1">
+        <v>81600210</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B136" s="1">
+        <v>81600240</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>239</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
